--- a/QiYeWeiXinAutoTest/Excel/userinfo.xlsx
+++ b/QiYeWeiXinAutoTest/Excel/userinfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B659E825-34E8-4377-A608-8E4D696113FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5AEF4E-81AF-4572-8FEF-06DF392488AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="22545" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26190" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="成员列表" sheetId="1" r:id="rId1"/>
@@ -20,259 +20,263 @@
     <t>姓名</t>
   </si>
   <si>
+    <t>吴兵兵</t>
+  </si>
+  <si>
+    <t>18923885176</t>
+  </si>
+  <si>
+    <t>邓博文</t>
+  </si>
+  <si>
+    <t>18723463686</t>
+  </si>
+  <si>
+    <t>甘梦杰</t>
+  </si>
+  <si>
+    <t>18926562073</t>
+  </si>
+  <si>
+    <t>葛巍</t>
+  </si>
+  <si>
+    <t>18017856237</t>
+  </si>
+  <si>
+    <t>黄髦燕</t>
+  </si>
+  <si>
+    <t>18148533065</t>
+  </si>
+  <si>
+    <t>胡宝飞</t>
+  </si>
+  <si>
+    <t>15217977619</t>
+  </si>
+  <si>
+    <t>姜博雅</t>
+  </si>
+  <si>
+    <t>18721402697</t>
+  </si>
+  <si>
+    <t>刘广辉</t>
+  </si>
+  <si>
+    <t>18218676696</t>
+  </si>
+  <si>
+    <t>刘金戈</t>
+  </si>
+  <si>
+    <t>18404985936</t>
+  </si>
+  <si>
+    <t>刘彦麟</t>
+  </si>
+  <si>
+    <t>15619383893</t>
+  </si>
+  <si>
+    <t>陆冰鸿</t>
+  </si>
+  <si>
+    <t>18011725557</t>
+  </si>
+  <si>
+    <t>卢华文</t>
+  </si>
+  <si>
+    <t>15811840855</t>
+  </si>
+  <si>
+    <t>罗敏敏</t>
+  </si>
+  <si>
+    <t>18676733463</t>
+  </si>
+  <si>
+    <t>马斐斐</t>
+  </si>
+  <si>
+    <t>13349993647</t>
+  </si>
+  <si>
+    <t>彭勃然</t>
+  </si>
+  <si>
+    <t>13823700104</t>
+  </si>
+  <si>
+    <t>苏进</t>
+  </si>
+  <si>
+    <t>15013744164</t>
+  </si>
+  <si>
+    <t>唐含章</t>
+  </si>
+  <si>
+    <t>13701994823</t>
+  </si>
+  <si>
+    <t>田鹏程</t>
+  </si>
+  <si>
+    <t>18319700570</t>
+  </si>
+  <si>
+    <t>王孟涛</t>
+  </si>
+  <si>
+    <t>13714746517</t>
+  </si>
+  <si>
+    <t>杨钰玮</t>
+  </si>
+  <si>
+    <t>13701664955</t>
+  </si>
+  <si>
+    <t>张梦川</t>
+  </si>
+  <si>
+    <t>15361828048</t>
+  </si>
+  <si>
+    <t>张青</t>
+  </si>
+  <si>
+    <t>13476104163</t>
+  </si>
+  <si>
+    <t>郑建宁</t>
+  </si>
+  <si>
+    <t>18616830776</t>
+  </si>
+  <si>
+    <t>田清</t>
+  </si>
+  <si>
+    <t>18813863231</t>
+  </si>
+  <si>
+    <t>江泳民</t>
+  </si>
+  <si>
+    <t>17603035107</t>
+  </si>
+  <si>
+    <t>李京沅</t>
+  </si>
+  <si>
+    <t>18007448956</t>
+  </si>
+  <si>
+    <t>李令</t>
+  </si>
+  <si>
+    <t>13826537920</t>
+  </si>
+  <si>
+    <t>测试机xs</t>
+  </si>
+  <si>
+    <t>15338703616</t>
+  </si>
+  <si>
+    <t>肖敏</t>
+  </si>
+  <si>
+    <t>18588252610</t>
+  </si>
+  <si>
+    <t>张会丽</t>
+  </si>
+  <si>
+    <t>18664305171</t>
+  </si>
+  <si>
+    <t>李启龙</t>
+  </si>
+  <si>
+    <t>18018747392</t>
+  </si>
+  <si>
+    <t>张飞阳</t>
+  </si>
+  <si>
+    <t>18682396602</t>
+  </si>
+  <si>
+    <t>刘洋</t>
+  </si>
+  <si>
+    <t>17727441126</t>
+  </si>
+  <si>
+    <t>测试机XR</t>
+  </si>
+  <si>
+    <t>15302667107</t>
+  </si>
+  <si>
+    <t>韩兴蓉</t>
+  </si>
+  <si>
+    <t>18503086310</t>
+  </si>
+  <si>
+    <t>何静文</t>
+  </si>
+  <si>
+    <t>13246666679</t>
+  </si>
+  <si>
+    <t>黄芊芊</t>
+  </si>
+  <si>
+    <t>15712084774</t>
+  </si>
+  <si>
+    <t>梁淑敏</t>
+  </si>
+  <si>
+    <t>13380132228</t>
+  </si>
+  <si>
+    <t>王琰琰</t>
+  </si>
+  <si>
+    <t>13826497773</t>
+  </si>
+  <si>
+    <t>刘启超</t>
+  </si>
+  <si>
+    <t>18938043406</t>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>李晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>童彤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>13764567103</t>
-  </si>
-  <si>
-    <t>童彤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>18688946104</t>
-  </si>
-  <si>
-    <t>吴兵兵</t>
-  </si>
-  <si>
-    <t>18923885176</t>
-  </si>
-  <si>
-    <t>邓博文</t>
-  </si>
-  <si>
-    <t>18723463686</t>
-  </si>
-  <si>
-    <t>甘梦杰</t>
-  </si>
-  <si>
-    <t>18926562073</t>
-  </si>
-  <si>
-    <t>葛巍</t>
-  </si>
-  <si>
-    <t>18017856237</t>
-  </si>
-  <si>
-    <t>黄髦燕</t>
-  </si>
-  <si>
-    <t>18148533065</t>
-  </si>
-  <si>
-    <t>胡宝飞</t>
-  </si>
-  <si>
-    <t>15217977619</t>
-  </si>
-  <si>
-    <t>姜博雅</t>
-  </si>
-  <si>
-    <t>18721402697</t>
-  </si>
-  <si>
-    <t>刘广辉</t>
-  </si>
-  <si>
-    <t>18218676696</t>
-  </si>
-  <si>
-    <t>刘金戈</t>
-  </si>
-  <si>
-    <t>18404985936</t>
-  </si>
-  <si>
-    <t>刘彦麟</t>
-  </si>
-  <si>
-    <t>15619383893</t>
-  </si>
-  <si>
-    <t>陆冰鸿</t>
-  </si>
-  <si>
-    <t>18011725557</t>
-  </si>
-  <si>
-    <t>卢华文</t>
-  </si>
-  <si>
-    <t>15811840855</t>
-  </si>
-  <si>
-    <t>罗敏敏</t>
-  </si>
-  <si>
-    <t>18676733463</t>
-  </si>
-  <si>
-    <t>马斐斐</t>
-  </si>
-  <si>
-    <t>13349993647</t>
-  </si>
-  <si>
-    <t>彭勃然</t>
-  </si>
-  <si>
-    <t>13823700104</t>
-  </si>
-  <si>
-    <t>苏进</t>
-  </si>
-  <si>
-    <t>15013744164</t>
-  </si>
-  <si>
-    <t>唐含章</t>
-  </si>
-  <si>
-    <t>13701994823</t>
-  </si>
-  <si>
-    <t>田鹏程</t>
-  </si>
-  <si>
-    <t>18319700570</t>
-  </si>
-  <si>
-    <t>王孟涛</t>
-  </si>
-  <si>
-    <t>13714746517</t>
-  </si>
-  <si>
-    <t>杨钰玮</t>
-  </si>
-  <si>
-    <t>13701664955</t>
-  </si>
-  <si>
-    <t>张梦川</t>
-  </si>
-  <si>
-    <t>15361828048</t>
-  </si>
-  <si>
-    <t>张青</t>
-  </si>
-  <si>
-    <t>13476104163</t>
-  </si>
-  <si>
-    <t>郑建宁</t>
-  </si>
-  <si>
-    <t>18616830776</t>
-  </si>
-  <si>
-    <t>田清</t>
-  </si>
-  <si>
-    <t>18813863231</t>
-  </si>
-  <si>
-    <t>江泳民</t>
-  </si>
-  <si>
-    <t>17603035107</t>
-  </si>
-  <si>
-    <t>李京沅</t>
-  </si>
-  <si>
-    <t>18007448956</t>
-  </si>
-  <si>
-    <t>李令</t>
-  </si>
-  <si>
-    <t>13826537920</t>
-  </si>
-  <si>
-    <t>测试机xs</t>
-  </si>
-  <si>
-    <t>15338703616</t>
-  </si>
-  <si>
-    <t>肖敏</t>
-  </si>
-  <si>
-    <t>18588252610</t>
-  </si>
-  <si>
-    <t>张会丽</t>
-  </si>
-  <si>
-    <t>18664305171</t>
-  </si>
-  <si>
-    <t>李启龙</t>
-  </si>
-  <si>
-    <t>18018747392</t>
-  </si>
-  <si>
-    <t>张飞阳</t>
-  </si>
-  <si>
-    <t>18682396602</t>
-  </si>
-  <si>
-    <t>刘洋</t>
-  </si>
-  <si>
-    <t>17727441126</t>
-  </si>
-  <si>
-    <t>测试机XR</t>
-  </si>
-  <si>
-    <t>15302667107</t>
-  </si>
-  <si>
-    <t>韩兴蓉</t>
-  </si>
-  <si>
-    <t>18503086310</t>
-  </si>
-  <si>
-    <t>何静文</t>
-  </si>
-  <si>
-    <t>13246666679</t>
-  </si>
-  <si>
-    <t>黄芊芊</t>
-  </si>
-  <si>
-    <t>15712084774</t>
-  </si>
-  <si>
-    <t>梁淑敏</t>
-  </si>
-  <si>
-    <t>13380132228</t>
-  </si>
-  <si>
-    <t>王琰琰</t>
-  </si>
-  <si>
-    <t>13826497773</t>
-  </si>
-  <si>
-    <t>刘启超</t>
-  </si>
-  <si>
-    <t>18938043406</t>
-  </si>
-  <si>
-    <t>手机号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -329,10 +333,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -674,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -688,343 +693,343 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>82</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+        <v>83</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
